--- a/Financials/Quarterly/SUHJY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/SUHJY_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94A904E-82CB-496A-9FC5-79E291F1E7A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUHJY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>SUHJY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,155 +689,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43281</v>
+      </c>
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7061200</v>
+        <v>4727700</v>
       </c>
       <c r="E8" s="3">
-        <v>4078600</v>
+        <v>3882600</v>
       </c>
       <c r="F8" s="3">
-        <v>5931900</v>
+        <v>7027600</v>
       </c>
       <c r="G8" s="3">
-        <v>7204100</v>
+        <v>4059200</v>
       </c>
       <c r="H8" s="3">
-        <v>4467500</v>
+        <v>5903600</v>
       </c>
       <c r="I8" s="3">
+        <v>7169800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4446200</v>
+      </c>
+      <c r="K8" s="3">
         <v>4440300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4107900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5452000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3645300</v>
+        <v>2327200</v>
       </c>
       <c r="E9" s="3">
-        <v>2071900</v>
+        <v>1945600</v>
       </c>
       <c r="F9" s="3">
-        <v>3359500</v>
+        <v>3627900</v>
       </c>
       <c r="G9" s="3">
-        <v>4494300</v>
+        <v>2062100</v>
       </c>
       <c r="H9" s="3">
-        <v>2730600</v>
+        <v>3343500</v>
       </c>
       <c r="I9" s="3">
+        <v>4472900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2717600</v>
+      </c>
+      <c r="K9" s="3">
         <v>2557700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2432900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3486000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3415900</v>
+        <v>2400500</v>
       </c>
       <c r="E10" s="3">
-        <v>2006700</v>
+        <v>1937000</v>
       </c>
       <c r="F10" s="3">
-        <v>2572400</v>
+        <v>3399700</v>
       </c>
       <c r="G10" s="3">
-        <v>2709800</v>
+        <v>1997100</v>
       </c>
       <c r="H10" s="3">
-        <v>1736800</v>
+        <v>2560200</v>
       </c>
       <c r="I10" s="3">
+        <v>2696800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1728600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1882600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1675000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1966100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +875,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,8 +906,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,8 +941,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,8 +976,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +1011,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +1027,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2859300</v>
+        <v>1925900</v>
       </c>
       <c r="E17" s="3">
-        <v>1384400</v>
+        <v>1539000</v>
       </c>
       <c r="F17" s="3">
-        <v>3079000</v>
+        <v>2845600</v>
       </c>
       <c r="G17" s="3">
-        <v>4510300</v>
+        <v>1377900</v>
       </c>
       <c r="H17" s="3">
-        <v>2345200</v>
+        <v>3064400</v>
       </c>
       <c r="I17" s="3">
+        <v>4488800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2334000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2343000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1883300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3414000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4202000</v>
+        <v>2801800</v>
       </c>
       <c r="E18" s="3">
-        <v>2694100</v>
+        <v>2343600</v>
       </c>
       <c r="F18" s="3">
-        <v>2852900</v>
+        <v>4182000</v>
       </c>
       <c r="G18" s="3">
-        <v>2693800</v>
+        <v>2681300</v>
       </c>
       <c r="H18" s="3">
-        <v>2122200</v>
+        <v>2839300</v>
       </c>
       <c r="I18" s="3">
+        <v>2680900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2112100</v>
+      </c>
+      <c r="K18" s="3">
         <v>2097300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2224600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2038000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,153 +1112,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>850300</v>
+        <v>472500</v>
       </c>
       <c r="E20" s="3">
-        <v>510000</v>
+        <v>439500</v>
       </c>
       <c r="F20" s="3">
-        <v>494100</v>
+        <v>846300</v>
       </c>
       <c r="G20" s="3">
-        <v>288900</v>
+        <v>507500</v>
       </c>
       <c r="H20" s="3">
-        <v>274000</v>
+        <v>491700</v>
       </c>
       <c r="I20" s="3">
+        <v>287500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>272700</v>
+      </c>
+      <c r="K20" s="3">
         <v>400000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>335700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>316800</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5179400</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3206000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3470100</v>
+        <v>3407400</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G21" s="3">
-        <v>2975500</v>
+        <v>3190700</v>
       </c>
       <c r="H21" s="3">
-        <v>2524700</v>
+        <v>3453500</v>
       </c>
       <c r="I21" s="3">
+        <v>2961300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2512600</v>
+      </c>
+      <c r="K21" s="3">
         <v>2496500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2687000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2356900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>114900</v>
+        <v>157300</v>
       </c>
       <c r="E22" s="3">
-        <v>117600</v>
+        <v>135500</v>
       </c>
       <c r="F22" s="3">
-        <v>132600</v>
+        <v>114400</v>
       </c>
       <c r="G22" s="3">
-        <v>138900</v>
+        <v>117100</v>
       </c>
       <c r="H22" s="3">
-        <v>147500</v>
+        <v>132000</v>
       </c>
       <c r="I22" s="3">
+        <v>138200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>146800</v>
+      </c>
+      <c r="K22" s="3">
         <v>148700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>155600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>149600</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4937300</v>
+        <v>3117000</v>
       </c>
       <c r="E23" s="3">
-        <v>3086500</v>
+        <v>2647500</v>
       </c>
       <c r="F23" s="3">
-        <v>3214300</v>
+        <v>4913800</v>
       </c>
       <c r="G23" s="3">
-        <v>2843800</v>
+        <v>3071800</v>
       </c>
       <c r="H23" s="3">
-        <v>2248800</v>
+        <v>3199000</v>
       </c>
       <c r="I23" s="3">
+        <v>2830200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2238100</v>
+      </c>
+      <c r="K23" s="3">
         <v>2348500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2404700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2205200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>652000</v>
+        <v>432900</v>
       </c>
       <c r="E24" s="3">
-        <v>347100</v>
+        <v>421400</v>
       </c>
       <c r="F24" s="3">
-        <v>516900</v>
+        <v>648900</v>
       </c>
       <c r="G24" s="3">
-        <v>500700</v>
+        <v>345500</v>
       </c>
       <c r="H24" s="3">
-        <v>317200</v>
+        <v>514400</v>
       </c>
       <c r="I24" s="3">
+        <v>498300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>315700</v>
+      </c>
+      <c r="K24" s="3">
         <v>319000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>291700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>302800</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1318,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4285300</v>
+        <v>2684100</v>
       </c>
       <c r="E26" s="3">
-        <v>2739300</v>
+        <v>2226100</v>
       </c>
       <c r="F26" s="3">
-        <v>2697500</v>
+        <v>4264900</v>
       </c>
       <c r="G26" s="3">
-        <v>2343000</v>
+        <v>2726300</v>
       </c>
       <c r="H26" s="3">
-        <v>1931600</v>
+        <v>2684600</v>
       </c>
       <c r="I26" s="3">
+        <v>2331900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1922400</v>
+      </c>
+      <c r="K26" s="3">
         <v>2029600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2113000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1902300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4228000</v>
+        <v>2607500</v>
       </c>
       <c r="E27" s="3">
-        <v>2703700</v>
+        <v>2155400</v>
       </c>
       <c r="F27" s="3">
-        <v>2644400</v>
+        <v>4207800</v>
       </c>
       <c r="G27" s="3">
-        <v>2296600</v>
+        <v>2690900</v>
       </c>
       <c r="H27" s="3">
-        <v>1884700</v>
+        <v>2631800</v>
       </c>
       <c r="I27" s="3">
+        <v>2285600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1875700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1969400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2009100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1855100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1423,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1458,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1493,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1528,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-850300</v>
+        <v>-472500</v>
       </c>
       <c r="E32" s="3">
-        <v>-510000</v>
+        <v>-439500</v>
       </c>
       <c r="F32" s="3">
-        <v>-494100</v>
+        <v>-846300</v>
       </c>
       <c r="G32" s="3">
-        <v>-288900</v>
+        <v>-507500</v>
       </c>
       <c r="H32" s="3">
-        <v>-274000</v>
+        <v>-491700</v>
       </c>
       <c r="I32" s="3">
+        <v>-287500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-272700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-335700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-316800</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4228000</v>
+        <v>2607500</v>
       </c>
       <c r="E33" s="3">
-        <v>2703700</v>
+        <v>2155400</v>
       </c>
       <c r="F33" s="3">
-        <v>2644400</v>
+        <v>4207800</v>
       </c>
       <c r="G33" s="3">
-        <v>2296600</v>
+        <v>2690900</v>
       </c>
       <c r="H33" s="3">
-        <v>1884700</v>
+        <v>2631800</v>
       </c>
       <c r="I33" s="3">
+        <v>2285600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1875700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1969400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2009100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1855100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1633,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4228000</v>
+        <v>2607500</v>
       </c>
       <c r="E35" s="3">
-        <v>2703700</v>
+        <v>2155400</v>
       </c>
       <c r="F35" s="3">
-        <v>2644400</v>
+        <v>4207800</v>
       </c>
       <c r="G35" s="3">
-        <v>2296600</v>
+        <v>2690900</v>
       </c>
       <c r="H35" s="3">
-        <v>1884700</v>
+        <v>2631800</v>
       </c>
       <c r="I35" s="3">
+        <v>2285600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1875700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1969400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2009100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1855100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43281</v>
+      </c>
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1727,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,269 +1742,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4054700</v>
+        <v>3581800</v>
       </c>
       <c r="E41" s="3">
-        <v>4003100</v>
+        <v>3324200</v>
       </c>
       <c r="F41" s="3">
-        <v>4345700</v>
+        <v>4035300</v>
       </c>
       <c r="G41" s="3">
-        <v>3846100</v>
+        <v>3984000</v>
       </c>
       <c r="H41" s="3">
-        <v>3088800</v>
+        <v>4325000</v>
       </c>
       <c r="I41" s="3">
+        <v>3827800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3074000</v>
+      </c>
+      <c r="K41" s="3">
         <v>4167800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2959200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2371600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>113700</v>
+        <v>110300</v>
       </c>
       <c r="E42" s="3">
-        <v>102100</v>
+        <v>109400</v>
       </c>
       <c r="F42" s="3">
-        <v>139800</v>
+        <v>113100</v>
       </c>
       <c r="G42" s="3">
-        <v>143100</v>
+        <v>101700</v>
       </c>
       <c r="H42" s="3">
-        <v>96300</v>
+        <v>139100</v>
       </c>
       <c r="I42" s="3">
+        <v>142400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>95800</v>
+      </c>
+      <c r="K42" s="3">
         <v>114400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>99800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>95600</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3203500</v>
+        <v>2564000</v>
       </c>
       <c r="E43" s="3">
-        <v>2230000</v>
+        <v>2549600</v>
       </c>
       <c r="F43" s="3">
-        <v>3050400</v>
+        <v>3188200</v>
       </c>
       <c r="G43" s="3">
-        <v>3099600</v>
+        <v>2219400</v>
       </c>
       <c r="H43" s="3">
-        <v>2096500</v>
+        <v>3035800</v>
       </c>
       <c r="I43" s="3">
+        <v>3084900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2086500</v>
+      </c>
+      <c r="K43" s="3">
         <v>2098700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1921000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2358000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19472600</v>
+        <v>23132900</v>
       </c>
       <c r="E44" s="3">
-        <v>18797200</v>
+        <v>22650800</v>
       </c>
       <c r="F44" s="3">
-        <v>17667200</v>
+        <v>19379800</v>
       </c>
       <c r="G44" s="3">
-        <v>18616300</v>
+        <v>18707600</v>
       </c>
       <c r="H44" s="3">
-        <v>20730200</v>
+        <v>17583000</v>
       </c>
       <c r="I44" s="3">
+        <v>18527600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>20631400</v>
+      </c>
+      <c r="K44" s="3">
         <v>19205600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>19196800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>19162600</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>81500</v>
+        <v>46600</v>
       </c>
       <c r="E45" s="3">
-        <v>50000</v>
+        <v>64600</v>
       </c>
       <c r="F45" s="3">
-        <v>65700</v>
+        <v>81100</v>
       </c>
       <c r="G45" s="3">
-        <v>103400</v>
+        <v>49800</v>
       </c>
       <c r="H45" s="3">
-        <v>74200</v>
+        <v>65400</v>
       </c>
       <c r="I45" s="3">
+        <v>102900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K45" s="3">
         <v>549600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>572200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>636400</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>26926000</v>
+        <v>29435600</v>
       </c>
       <c r="E46" s="3">
-        <v>25182500</v>
+        <v>28698700</v>
       </c>
       <c r="F46" s="3">
-        <v>25268700</v>
+        <v>26797600</v>
       </c>
       <c r="G46" s="3">
-        <v>25808600</v>
+        <v>25062500</v>
       </c>
       <c r="H46" s="3">
-        <v>26086000</v>
+        <v>25148300</v>
       </c>
       <c r="I46" s="3">
+        <v>25685600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>25961700</v>
+      </c>
+      <c r="K46" s="3">
         <v>26136200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>24749100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>24624300</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9794600</v>
+        <v>10337800</v>
       </c>
       <c r="E47" s="3">
-        <v>9241200</v>
+        <v>10339500</v>
       </c>
       <c r="F47" s="3">
-        <v>8680800</v>
+        <v>9747900</v>
       </c>
       <c r="G47" s="3">
-        <v>8341500</v>
+        <v>9197200</v>
       </c>
       <c r="H47" s="3">
-        <v>8303000</v>
+        <v>8639500</v>
       </c>
       <c r="I47" s="3">
+        <v>8301800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>8263400</v>
+      </c>
+      <c r="K47" s="3">
         <v>7808600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>7478400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>7310800</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>49616000</v>
+        <v>52098400</v>
       </c>
       <c r="E48" s="3">
-        <v>46714500</v>
+        <v>51473700</v>
       </c>
       <c r="F48" s="3">
-        <v>44796300</v>
+        <v>49379500</v>
       </c>
       <c r="G48" s="3">
-        <v>44027300</v>
+        <v>46491900</v>
       </c>
       <c r="H48" s="3">
-        <v>43237600</v>
+        <v>44582800</v>
       </c>
       <c r="I48" s="3">
+        <v>43817400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>43031600</v>
+      </c>
+      <c r="K48" s="3">
         <v>42857700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>41047800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>38786000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>672000</v>
+        <v>599000</v>
       </c>
       <c r="E49" s="3">
-        <v>707100</v>
+        <v>633900</v>
       </c>
       <c r="F49" s="3">
-        <v>742300</v>
+        <v>668800</v>
       </c>
       <c r="G49" s="3">
-        <v>480500</v>
+        <v>703700</v>
       </c>
       <c r="H49" s="3">
-        <v>509700</v>
+        <v>738700</v>
       </c>
       <c r="I49" s="3">
+        <v>478200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>507300</v>
+      </c>
+      <c r="K49" s="3">
         <v>523500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>552300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>581000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +2088,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,8 +2123,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1883,8 +2158,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2193,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>87008500</v>
+        <v>92470900</v>
       </c>
       <c r="E54" s="3">
-        <v>81845200</v>
+        <v>91145800</v>
       </c>
       <c r="F54" s="3">
-        <v>79488100</v>
+        <v>86593900</v>
       </c>
       <c r="G54" s="3">
-        <v>78657900</v>
+        <v>81455200</v>
       </c>
       <c r="H54" s="3">
-        <v>78136300</v>
+        <v>79109300</v>
       </c>
       <c r="I54" s="3">
+        <v>78283100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>77764000</v>
+      </c>
+      <c r="K54" s="3">
         <v>77326100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>73827600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>71302100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2247,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,182 +2262,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3750300</v>
+        <v>3581600</v>
       </c>
       <c r="E57" s="3">
-        <v>3270300</v>
+        <v>3746400</v>
       </c>
       <c r="F57" s="3">
-        <v>3273600</v>
+        <v>3732400</v>
       </c>
       <c r="G57" s="3">
-        <v>3287000</v>
+        <v>3254700</v>
       </c>
       <c r="H57" s="3">
-        <v>3071700</v>
+        <v>3258000</v>
       </c>
       <c r="I57" s="3">
+        <v>3271400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3057100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2947100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2963200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2853600</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1198200</v>
+        <v>1227100</v>
       </c>
       <c r="E58" s="3">
-        <v>689900</v>
+        <v>1611000</v>
       </c>
       <c r="F58" s="3">
-        <v>1409500</v>
+        <v>1192500</v>
       </c>
       <c r="G58" s="3">
-        <v>2238200</v>
+        <v>686600</v>
       </c>
       <c r="H58" s="3">
-        <v>1861800</v>
+        <v>1402800</v>
       </c>
       <c r="I58" s="3">
+        <v>2227500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1852900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1384400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1404300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1182800</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2220900</v>
+        <v>3572100</v>
       </c>
       <c r="E59" s="3">
-        <v>2564200</v>
+        <v>3105800</v>
       </c>
       <c r="F59" s="3">
-        <v>2536300</v>
+        <v>2210300</v>
       </c>
       <c r="G59" s="3">
-        <v>2035800</v>
+        <v>2552000</v>
       </c>
       <c r="H59" s="3">
-        <v>3471900</v>
+        <v>2524200</v>
       </c>
       <c r="I59" s="3">
+        <v>2026100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3455300</v>
+      </c>
+      <c r="K59" s="3">
         <v>3058300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1958300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1922600</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7169400</v>
+        <v>8380900</v>
       </c>
       <c r="E60" s="3">
-        <v>6524400</v>
+        <v>8463200</v>
       </c>
       <c r="F60" s="3">
-        <v>7219500</v>
+        <v>7135200</v>
       </c>
       <c r="G60" s="3">
-        <v>7561100</v>
+        <v>6493300</v>
       </c>
       <c r="H60" s="3">
-        <v>8405400</v>
+        <v>7185100</v>
       </c>
       <c r="I60" s="3">
+        <v>7525100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>8365300</v>
+      </c>
+      <c r="K60" s="3">
         <v>7389800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6325800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5959000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8572800</v>
+        <v>10557200</v>
       </c>
       <c r="E61" s="3">
-        <v>7927800</v>
+        <v>10036800</v>
       </c>
       <c r="F61" s="3">
-        <v>8281500</v>
+        <v>8531900</v>
       </c>
       <c r="G61" s="3">
-        <v>8099200</v>
+        <v>7890000</v>
       </c>
       <c r="H61" s="3">
-        <v>8465500</v>
+        <v>8242000</v>
       </c>
       <c r="I61" s="3">
+        <v>8060600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>8425200</v>
+      </c>
+      <c r="K61" s="3">
         <v>9256400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>9191200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>9534700</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2679400</v>
+        <v>2799100</v>
       </c>
       <c r="E62" s="3">
-        <v>2450600</v>
+        <v>2781100</v>
       </c>
       <c r="F62" s="3">
-        <v>2290000</v>
+        <v>2666700</v>
       </c>
       <c r="G62" s="3">
-        <v>2260600</v>
+        <v>2438900</v>
       </c>
       <c r="H62" s="3">
-        <v>2201100</v>
+        <v>2279100</v>
       </c>
       <c r="I62" s="3">
+        <v>2249800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2190600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2207100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2162600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2088200</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2503,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2538,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2573,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19110000</v>
+        <v>22448500</v>
       </c>
       <c r="E66" s="3">
-        <v>17573200</v>
+        <v>21974900</v>
       </c>
       <c r="F66" s="3">
-        <v>18453400</v>
+        <v>19018900</v>
       </c>
       <c r="G66" s="3">
-        <v>18663400</v>
+        <v>17489500</v>
       </c>
       <c r="H66" s="3">
-        <v>19798300</v>
+        <v>18365400</v>
       </c>
       <c r="I66" s="3">
+        <v>18574500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>19703900</v>
+      </c>
+      <c r="K66" s="3">
         <v>19594800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>18385500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>18209900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2627,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2658,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2693,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2728,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2763,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>57789700</v>
+        <v>60591400</v>
       </c>
       <c r="E72" s="3">
-        <v>54686200</v>
+        <v>59247800</v>
       </c>
       <c r="F72" s="3">
-        <v>52397700</v>
+        <v>57514300</v>
       </c>
       <c r="G72" s="3">
-        <v>50801500</v>
+        <v>54425600</v>
       </c>
       <c r="H72" s="3">
-        <v>48898000</v>
+        <v>52148000</v>
       </c>
       <c r="I72" s="3">
+        <v>50559400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>48665000</v>
+      </c>
+      <c r="K72" s="3">
         <v>47901300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>46286600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>45143700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2833,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2868,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2903,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>67898500</v>
+        <v>70022300</v>
       </c>
       <c r="E76" s="3">
-        <v>64272000</v>
+        <v>69170900</v>
       </c>
       <c r="F76" s="3">
-        <v>61034800</v>
+        <v>67574900</v>
       </c>
       <c r="G76" s="3">
-        <v>59994500</v>
+        <v>63965700</v>
       </c>
       <c r="H76" s="3">
-        <v>58338000</v>
+        <v>60743900</v>
       </c>
       <c r="I76" s="3">
+        <v>59708600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>58060000</v>
+      </c>
+      <c r="K76" s="3">
         <v>57731300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>55442000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>53092200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2973,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43281</v>
+      </c>
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4228000</v>
+        <v>2607500</v>
       </c>
       <c r="E81" s="3">
-        <v>2703700</v>
+        <v>2155400</v>
       </c>
       <c r="F81" s="3">
-        <v>2644400</v>
+        <v>4207800</v>
       </c>
       <c r="G81" s="3">
-        <v>2296600</v>
+        <v>2690900</v>
       </c>
       <c r="H81" s="3">
-        <v>1884700</v>
+        <v>2631800</v>
       </c>
       <c r="I81" s="3">
+        <v>2285600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1875700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1969400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2009100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1855100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,8 +3067,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2665,8 +3098,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +3133,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +3168,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +3203,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +3238,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3273,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1096200</v>
+        <v>1749800</v>
       </c>
       <c r="E89" s="3">
-        <v>1163400</v>
+        <v>-286200</v>
       </c>
       <c r="F89" s="3">
-        <v>3311700</v>
+        <v>1224600</v>
       </c>
       <c r="G89" s="3">
-        <v>1665000</v>
+        <v>1157800</v>
       </c>
       <c r="H89" s="3">
-        <v>292900</v>
+        <v>3296000</v>
       </c>
       <c r="I89" s="3">
+        <v>1657100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>291500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1138300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>556800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-473100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,8 +3327,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2881,8 +3358,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3393,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3428,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-915100</v>
+        <v>-312000</v>
       </c>
       <c r="E94" s="3">
-        <v>-318600</v>
+        <v>-2115200</v>
       </c>
       <c r="F94" s="3">
-        <v>-922500</v>
+        <v>-910700</v>
       </c>
       <c r="G94" s="3">
-        <v>-336800</v>
+        <v>-317100</v>
       </c>
       <c r="H94" s="3">
-        <v>-408300</v>
+        <v>-918100</v>
       </c>
       <c r="I94" s="3">
+        <v>-335200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-406400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-79900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-51300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-965600</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,37 +3482,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1112300</v>
+        <v>-1273300</v>
       </c>
       <c r="E96" s="3">
-        <v>-407700</v>
+        <v>-442900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1037700</v>
+        <v>-1107000</v>
       </c>
       <c r="G96" s="3">
-        <v>-388900</v>
+        <v>-405700</v>
       </c>
       <c r="H96" s="3">
-        <v>-888800</v>
+        <v>-1032800</v>
       </c>
       <c r="I96" s="3">
+        <v>-387000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-884600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-349200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-867100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-97000</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3548,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3583,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,91 +3618,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>408100</v>
+        <v>-1198200</v>
       </c>
       <c r="E100" s="3">
-        <v>-646900</v>
+        <v>1275000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1658800</v>
+        <v>517500</v>
       </c>
       <c r="G100" s="3">
-        <v>-959400</v>
+        <v>-643800</v>
       </c>
       <c r="H100" s="3">
-        <v>-325900</v>
+        <v>-1650800</v>
       </c>
       <c r="I100" s="3">
+        <v>-954800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-324300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1401900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>77600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1561000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>53400</v>
+        <v>-52700</v>
       </c>
       <c r="E101" s="3">
-        <v>32100</v>
+        <v>-17800</v>
       </c>
       <c r="F101" s="3">
-        <v>-42500</v>
+        <v>53100</v>
       </c>
       <c r="G101" s="3">
+        <v>32000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="I101" s="3">
         <v>-18000</v>
       </c>
-      <c r="H101" s="3">
-        <v>-32900</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>642600</v>
+        <v>186900</v>
       </c>
       <c r="E102" s="3">
-        <v>230000</v>
+        <v>-899200</v>
       </c>
       <c r="F102" s="3">
-        <v>688000</v>
+        <v>639500</v>
       </c>
       <c r="G102" s="3">
-        <v>350800</v>
+        <v>228900</v>
       </c>
       <c r="H102" s="3">
-        <v>-474200</v>
+        <v>684700</v>
       </c>
       <c r="I102" s="3">
+        <v>349200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-472000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-343400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>583400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>112900</v>
       </c>
     </row>

--- a/Financials/Quarterly/SUHJY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/SUHJY_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94A904E-82CB-496A-9FC5-79E291F1E7A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="SUHJY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>SUHJY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,181 +654,194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42004</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4727700</v>
+        <v>6206400</v>
       </c>
       <c r="E8" s="3">
-        <v>3882600</v>
+        <v>4779700</v>
       </c>
       <c r="F8" s="3">
-        <v>7027600</v>
+        <v>3925300</v>
       </c>
       <c r="G8" s="3">
-        <v>4059200</v>
+        <v>7104800</v>
       </c>
       <c r="H8" s="3">
-        <v>5903600</v>
+        <v>4103800</v>
       </c>
       <c r="I8" s="3">
-        <v>7169800</v>
+        <v>5968500</v>
       </c>
       <c r="J8" s="3">
+        <v>7248600</v>
+      </c>
+      <c r="K8" s="3">
         <v>4446200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4440300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4107900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5452000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2327200</v>
+        <v>2857500</v>
       </c>
       <c r="E9" s="3">
-        <v>1945600</v>
+        <v>2352700</v>
       </c>
       <c r="F9" s="3">
-        <v>3627900</v>
+        <v>1967000</v>
       </c>
       <c r="G9" s="3">
-        <v>2062100</v>
+        <v>3667800</v>
       </c>
       <c r="H9" s="3">
-        <v>3343500</v>
+        <v>2084700</v>
       </c>
       <c r="I9" s="3">
-        <v>4472900</v>
+        <v>3380200</v>
       </c>
       <c r="J9" s="3">
+        <v>4522100</v>
+      </c>
+      <c r="K9" s="3">
         <v>2717600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2557700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2432900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3486000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2400500</v>
+        <v>3348900</v>
       </c>
       <c r="E10" s="3">
-        <v>1937000</v>
+        <v>2426900</v>
       </c>
       <c r="F10" s="3">
-        <v>3399700</v>
+        <v>1958300</v>
       </c>
       <c r="G10" s="3">
-        <v>1997100</v>
+        <v>3437000</v>
       </c>
       <c r="H10" s="3">
-        <v>2560200</v>
+        <v>2019000</v>
       </c>
       <c r="I10" s="3">
-        <v>2696800</v>
+        <v>2588300</v>
       </c>
       <c r="J10" s="3">
+        <v>2726500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1728600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1882600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1675000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1966100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,8 +855,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -912,8 +891,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +929,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -982,8 +967,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1017,8 +1005,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1029,78 +1020,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1925900</v>
+        <v>2548900</v>
       </c>
       <c r="E17" s="3">
-        <v>1539000</v>
+        <v>1947000</v>
       </c>
       <c r="F17" s="3">
-        <v>2845600</v>
+        <v>1555900</v>
       </c>
       <c r="G17" s="3">
-        <v>1377900</v>
+        <v>2876900</v>
       </c>
       <c r="H17" s="3">
-        <v>3064400</v>
+        <v>1393000</v>
       </c>
       <c r="I17" s="3">
-        <v>4488800</v>
+        <v>3098000</v>
       </c>
       <c r="J17" s="3">
+        <v>4538200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2334000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2343000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1883300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3414000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2801800</v>
+        <v>3657500</v>
       </c>
       <c r="E18" s="3">
-        <v>2343600</v>
+        <v>2832600</v>
       </c>
       <c r="F18" s="3">
-        <v>4182000</v>
+        <v>2369300</v>
       </c>
       <c r="G18" s="3">
-        <v>2681300</v>
+        <v>4227900</v>
       </c>
       <c r="H18" s="3">
-        <v>2839300</v>
+        <v>2710800</v>
       </c>
       <c r="I18" s="3">
-        <v>2680900</v>
+        <v>2870500</v>
       </c>
       <c r="J18" s="3">
+        <v>2710400</v>
+      </c>
+      <c r="K18" s="3">
         <v>2112100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2097300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2224600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2038000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1114,183 +1112,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>472500</v>
+        <v>361900</v>
       </c>
       <c r="E20" s="3">
-        <v>439500</v>
+        <v>477700</v>
       </c>
       <c r="F20" s="3">
-        <v>846300</v>
+        <v>444300</v>
       </c>
       <c r="G20" s="3">
-        <v>507500</v>
+        <v>855600</v>
       </c>
       <c r="H20" s="3">
-        <v>491700</v>
+        <v>513100</v>
       </c>
       <c r="I20" s="3">
-        <v>287500</v>
+        <v>497100</v>
       </c>
       <c r="J20" s="3">
+        <v>290700</v>
+      </c>
+      <c r="K20" s="3">
         <v>272700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>335700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>316800</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3407400</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
+        <v>4028600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3444900</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3">
-        <v>3190700</v>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H21" s="3">
-        <v>3453500</v>
+        <v>3225800</v>
       </c>
       <c r="I21" s="3">
-        <v>2961300</v>
+        <v>3491500</v>
       </c>
       <c r="J21" s="3">
+        <v>2993900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2512600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2496500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2687000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2356900</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>157300</v>
+        <v>153800</v>
       </c>
       <c r="E22" s="3">
-        <v>135500</v>
+        <v>159100</v>
       </c>
       <c r="F22" s="3">
-        <v>114400</v>
+        <v>137000</v>
       </c>
       <c r="G22" s="3">
-        <v>117100</v>
+        <v>115700</v>
       </c>
       <c r="H22" s="3">
-        <v>132000</v>
+        <v>118400</v>
       </c>
       <c r="I22" s="3">
-        <v>138200</v>
+        <v>133400</v>
       </c>
       <c r="J22" s="3">
+        <v>139700</v>
+      </c>
+      <c r="K22" s="3">
         <v>146800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>148700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>155600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>149600</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3117000</v>
+        <v>3865600</v>
       </c>
       <c r="E23" s="3">
-        <v>2647500</v>
+        <v>3151200</v>
       </c>
       <c r="F23" s="3">
-        <v>4913800</v>
+        <v>2676600</v>
       </c>
       <c r="G23" s="3">
-        <v>3071800</v>
+        <v>4967800</v>
       </c>
       <c r="H23" s="3">
-        <v>3199000</v>
+        <v>3105500</v>
       </c>
       <c r="I23" s="3">
-        <v>2830200</v>
+        <v>3234200</v>
       </c>
       <c r="J23" s="3">
+        <v>2861300</v>
+      </c>
+      <c r="K23" s="3">
         <v>2238100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2348500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2404700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2205200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>432900</v>
+        <v>653700</v>
       </c>
       <c r="E24" s="3">
-        <v>421400</v>
+        <v>437600</v>
       </c>
       <c r="F24" s="3">
-        <v>648900</v>
+        <v>426000</v>
       </c>
       <c r="G24" s="3">
-        <v>345500</v>
+        <v>656100</v>
       </c>
       <c r="H24" s="3">
-        <v>514400</v>
+        <v>349300</v>
       </c>
       <c r="I24" s="3">
-        <v>498300</v>
+        <v>520100</v>
       </c>
       <c r="J24" s="3">
+        <v>503800</v>
+      </c>
+      <c r="K24" s="3">
         <v>315700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>319000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>291700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>302800</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1324,78 +1338,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2684100</v>
+        <v>3211900</v>
       </c>
       <c r="E26" s="3">
-        <v>2226100</v>
+        <v>2713600</v>
       </c>
       <c r="F26" s="3">
-        <v>4264900</v>
+        <v>2250600</v>
       </c>
       <c r="G26" s="3">
-        <v>2726300</v>
+        <v>4311800</v>
       </c>
       <c r="H26" s="3">
-        <v>2684600</v>
+        <v>2756200</v>
       </c>
       <c r="I26" s="3">
-        <v>2331900</v>
+        <v>2714100</v>
       </c>
       <c r="J26" s="3">
+        <v>2357500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1922400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2029600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2113000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1902300</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2607500</v>
+        <v>3148000</v>
       </c>
       <c r="E27" s="3">
-        <v>2155400</v>
+        <v>2636200</v>
       </c>
       <c r="F27" s="3">
-        <v>4207800</v>
+        <v>2179100</v>
       </c>
       <c r="G27" s="3">
-        <v>2690900</v>
+        <v>4254100</v>
       </c>
       <c r="H27" s="3">
-        <v>2631800</v>
+        <v>2720400</v>
       </c>
       <c r="I27" s="3">
-        <v>2285600</v>
+        <v>2660700</v>
       </c>
       <c r="J27" s="3">
+        <v>2310800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1875700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1969400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2009100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1855100</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1429,8 +1452,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1464,8 +1490,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1499,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1534,78 +1566,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-472500</v>
+        <v>-361900</v>
       </c>
       <c r="E32" s="3">
-        <v>-439500</v>
+        <v>-477700</v>
       </c>
       <c r="F32" s="3">
-        <v>-846300</v>
+        <v>-444300</v>
       </c>
       <c r="G32" s="3">
-        <v>-507500</v>
+        <v>-855600</v>
       </c>
       <c r="H32" s="3">
-        <v>-491700</v>
+        <v>-513100</v>
       </c>
       <c r="I32" s="3">
-        <v>-287500</v>
+        <v>-497100</v>
       </c>
       <c r="J32" s="3">
+        <v>-290700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-272700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-335700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-316800</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2607500</v>
+        <v>3148000</v>
       </c>
       <c r="E33" s="3">
-        <v>2155400</v>
+        <v>2636200</v>
       </c>
       <c r="F33" s="3">
-        <v>4207800</v>
+        <v>2179100</v>
       </c>
       <c r="G33" s="3">
-        <v>2690900</v>
+        <v>4254100</v>
       </c>
       <c r="H33" s="3">
-        <v>2631800</v>
+        <v>2720400</v>
       </c>
       <c r="I33" s="3">
-        <v>2285600</v>
+        <v>2660700</v>
       </c>
       <c r="J33" s="3">
+        <v>2310800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1875700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1969400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2009100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1855100</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1639,83 +1680,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2607500</v>
+        <v>3148000</v>
       </c>
       <c r="E35" s="3">
-        <v>2155400</v>
+        <v>2636200</v>
       </c>
       <c r="F35" s="3">
-        <v>4207800</v>
+        <v>2179100</v>
       </c>
       <c r="G35" s="3">
-        <v>2690900</v>
+        <v>4254100</v>
       </c>
       <c r="H35" s="3">
-        <v>2631800</v>
+        <v>2720400</v>
       </c>
       <c r="I35" s="3">
-        <v>2285600</v>
+        <v>2660700</v>
       </c>
       <c r="J35" s="3">
+        <v>2310800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1875700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1969400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2009100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1855100</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42004</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1729,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1744,323 +1795,351 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3581800</v>
+        <v>2838300</v>
       </c>
       <c r="E41" s="3">
-        <v>3324200</v>
+        <v>3621200</v>
       </c>
       <c r="F41" s="3">
-        <v>4035300</v>
+        <v>3360800</v>
       </c>
       <c r="G41" s="3">
-        <v>3984000</v>
+        <v>4079700</v>
       </c>
       <c r="H41" s="3">
-        <v>4325000</v>
+        <v>4027800</v>
       </c>
       <c r="I41" s="3">
-        <v>3827800</v>
+        <v>4372500</v>
       </c>
       <c r="J41" s="3">
+        <v>3869900</v>
+      </c>
+      <c r="K41" s="3">
         <v>3074000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4167800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2959200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2371600</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>110300</v>
+        <v>142100</v>
       </c>
       <c r="E42" s="3">
-        <v>109400</v>
+        <v>111500</v>
       </c>
       <c r="F42" s="3">
-        <v>113100</v>
+        <v>110600</v>
       </c>
       <c r="G42" s="3">
-        <v>101700</v>
+        <v>114400</v>
       </c>
       <c r="H42" s="3">
-        <v>139100</v>
+        <v>102800</v>
       </c>
       <c r="I42" s="3">
-        <v>142400</v>
+        <v>140600</v>
       </c>
       <c r="J42" s="3">
+        <v>144000</v>
+      </c>
+      <c r="K42" s="3">
         <v>95800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>114400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>99800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>95600</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2564000</v>
+        <v>2937800</v>
       </c>
       <c r="E43" s="3">
-        <v>2549600</v>
+        <v>2592200</v>
       </c>
       <c r="F43" s="3">
-        <v>3188200</v>
+        <v>2577600</v>
       </c>
       <c r="G43" s="3">
-        <v>2219400</v>
+        <v>3223200</v>
       </c>
       <c r="H43" s="3">
-        <v>3035800</v>
+        <v>2243800</v>
       </c>
       <c r="I43" s="3">
-        <v>3084900</v>
+        <v>3069200</v>
       </c>
       <c r="J43" s="3">
+        <v>3118800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2086500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2098700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1921000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2358000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23132900</v>
+        <v>25302500</v>
       </c>
       <c r="E44" s="3">
-        <v>22650800</v>
+        <v>23387100</v>
       </c>
       <c r="F44" s="3">
-        <v>19379800</v>
+        <v>22899800</v>
       </c>
       <c r="G44" s="3">
-        <v>18707600</v>
+        <v>19592800</v>
       </c>
       <c r="H44" s="3">
-        <v>17583000</v>
+        <v>18913200</v>
       </c>
       <c r="I44" s="3">
-        <v>18527600</v>
+        <v>17776200</v>
       </c>
       <c r="J44" s="3">
+        <v>18731200</v>
+      </c>
+      <c r="K44" s="3">
         <v>20631400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>19205600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>19196800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>19162600</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>46600</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>64600</v>
+        <v>47100</v>
       </c>
       <c r="F45" s="3">
-        <v>81100</v>
+        <v>65300</v>
       </c>
       <c r="G45" s="3">
-        <v>49800</v>
+        <v>82000</v>
       </c>
       <c r="H45" s="3">
-        <v>65400</v>
+        <v>50400</v>
       </c>
       <c r="I45" s="3">
-        <v>102900</v>
+        <v>66100</v>
       </c>
       <c r="J45" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K45" s="3">
         <v>73900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>549600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>572200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>636400</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29435600</v>
+        <v>31220600</v>
       </c>
       <c r="E46" s="3">
-        <v>28698700</v>
+        <v>29759100</v>
       </c>
       <c r="F46" s="3">
-        <v>26797600</v>
+        <v>29014100</v>
       </c>
       <c r="G46" s="3">
-        <v>25062500</v>
+        <v>27092100</v>
       </c>
       <c r="H46" s="3">
-        <v>25148300</v>
+        <v>25337900</v>
       </c>
       <c r="I46" s="3">
-        <v>25685600</v>
+        <v>25424700</v>
       </c>
       <c r="J46" s="3">
+        <v>25967900</v>
+      </c>
+      <c r="K46" s="3">
         <v>25961700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26136200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24749100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24624300</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10337800</v>
+        <v>9925100</v>
       </c>
       <c r="E47" s="3">
-        <v>10339500</v>
+        <v>10451400</v>
       </c>
       <c r="F47" s="3">
-        <v>9747900</v>
+        <v>10453100</v>
       </c>
       <c r="G47" s="3">
-        <v>9197200</v>
+        <v>9855000</v>
       </c>
       <c r="H47" s="3">
-        <v>8639500</v>
+        <v>9298300</v>
       </c>
       <c r="I47" s="3">
-        <v>8301800</v>
+        <v>8734400</v>
       </c>
       <c r="J47" s="3">
+        <v>8393000</v>
+      </c>
+      <c r="K47" s="3">
         <v>8263400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7808600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7478400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7310800</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>52098400</v>
+        <v>54410400</v>
       </c>
       <c r="E48" s="3">
-        <v>51473700</v>
+        <v>52671000</v>
       </c>
       <c r="F48" s="3">
-        <v>49379500</v>
+        <v>52039400</v>
       </c>
       <c r="G48" s="3">
-        <v>46491900</v>
+        <v>49922200</v>
       </c>
       <c r="H48" s="3">
-        <v>44582800</v>
+        <v>47002800</v>
       </c>
       <c r="I48" s="3">
-        <v>43817400</v>
+        <v>45072800</v>
       </c>
       <c r="J48" s="3">
+        <v>44299000</v>
+      </c>
+      <c r="K48" s="3">
         <v>43031600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>42857700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>41047800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>38786000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>599000</v>
+        <v>572500</v>
       </c>
       <c r="E49" s="3">
-        <v>633900</v>
+        <v>605600</v>
       </c>
       <c r="F49" s="3">
-        <v>668800</v>
+        <v>640900</v>
       </c>
       <c r="G49" s="3">
-        <v>703700</v>
+        <v>676100</v>
       </c>
       <c r="H49" s="3">
-        <v>738700</v>
+        <v>711400</v>
       </c>
       <c r="I49" s="3">
-        <v>478200</v>
+        <v>746900</v>
       </c>
       <c r="J49" s="3">
+        <v>483500</v>
+      </c>
+      <c r="K49" s="3">
         <v>507300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>523500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>552300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>581000</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2094,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,31 +2211,34 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>613600</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2164,8 +2249,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>92470900</v>
+        <v>96742200</v>
       </c>
       <c r="E54" s="3">
-        <v>91145800</v>
+        <v>93487100</v>
       </c>
       <c r="F54" s="3">
-        <v>86593900</v>
+        <v>92147400</v>
       </c>
       <c r="G54" s="3">
-        <v>81455200</v>
+        <v>87545500</v>
       </c>
       <c r="H54" s="3">
-        <v>79109300</v>
+        <v>82350400</v>
       </c>
       <c r="I54" s="3">
-        <v>78283100</v>
+        <v>79978700</v>
       </c>
       <c r="J54" s="3">
+        <v>79143400</v>
+      </c>
+      <c r="K54" s="3">
         <v>77764000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>77326100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>73827600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>71302100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2249,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2264,218 +2359,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3581600</v>
+        <v>374700</v>
       </c>
       <c r="E57" s="3">
-        <v>3746400</v>
+        <v>3620900</v>
       </c>
       <c r="F57" s="3">
-        <v>3732400</v>
+        <v>3787600</v>
       </c>
       <c r="G57" s="3">
-        <v>3254700</v>
+        <v>3773400</v>
       </c>
       <c r="H57" s="3">
-        <v>3258000</v>
+        <v>3290500</v>
       </c>
       <c r="I57" s="3">
-        <v>3271400</v>
+        <v>3293800</v>
       </c>
       <c r="J57" s="3">
+        <v>3307300</v>
+      </c>
+      <c r="K57" s="3">
         <v>3057100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2947100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2963200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2853600</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1227100</v>
+        <v>1180700</v>
       </c>
       <c r="E58" s="3">
-        <v>1611000</v>
+        <v>1240600</v>
       </c>
       <c r="F58" s="3">
-        <v>1192500</v>
+        <v>1628700</v>
       </c>
       <c r="G58" s="3">
-        <v>686600</v>
+        <v>1205600</v>
       </c>
       <c r="H58" s="3">
-        <v>1402800</v>
+        <v>694200</v>
       </c>
       <c r="I58" s="3">
-        <v>2227500</v>
+        <v>1418200</v>
       </c>
       <c r="J58" s="3">
+        <v>2252000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1852900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1384400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1404300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1182800</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3572100</v>
+        <v>6932100</v>
       </c>
       <c r="E59" s="3">
-        <v>3105800</v>
+        <v>3611400</v>
       </c>
       <c r="F59" s="3">
-        <v>2210300</v>
+        <v>3139900</v>
       </c>
       <c r="G59" s="3">
+        <v>2234600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>2580100</v>
+      </c>
+      <c r="I59" s="3">
         <v>2552000</v>
       </c>
-      <c r="H59" s="3">
-        <v>2524200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2026100</v>
-      </c>
       <c r="J59" s="3">
+        <v>2048400</v>
+      </c>
+      <c r="K59" s="3">
         <v>3455300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3058300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1958300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1922600</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8380900</v>
+        <v>8487500</v>
       </c>
       <c r="E60" s="3">
-        <v>8463200</v>
+        <v>8473000</v>
       </c>
       <c r="F60" s="3">
-        <v>7135200</v>
+        <v>8556200</v>
       </c>
       <c r="G60" s="3">
-        <v>6493300</v>
+        <v>7213700</v>
       </c>
       <c r="H60" s="3">
-        <v>7185100</v>
+        <v>6564700</v>
       </c>
       <c r="I60" s="3">
-        <v>7525100</v>
+        <v>7264000</v>
       </c>
       <c r="J60" s="3">
+        <v>7607800</v>
+      </c>
+      <c r="K60" s="3">
         <v>8365300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7389800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6325800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5959000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10557200</v>
+        <v>11055100</v>
       </c>
       <c r="E61" s="3">
-        <v>10036800</v>
+        <v>10673200</v>
       </c>
       <c r="F61" s="3">
-        <v>8531900</v>
+        <v>10147100</v>
       </c>
       <c r="G61" s="3">
-        <v>7890000</v>
+        <v>8625700</v>
       </c>
       <c r="H61" s="3">
-        <v>8242000</v>
+        <v>7976700</v>
       </c>
       <c r="I61" s="3">
-        <v>8060600</v>
+        <v>8332600</v>
       </c>
       <c r="J61" s="3">
+        <v>8149200</v>
+      </c>
+      <c r="K61" s="3">
         <v>8425200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9256400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9191200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9534700</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2799100</v>
+        <v>3039800</v>
       </c>
       <c r="E62" s="3">
-        <v>2781100</v>
+        <v>2829900</v>
       </c>
       <c r="F62" s="3">
-        <v>2666700</v>
+        <v>2811600</v>
       </c>
       <c r="G62" s="3">
-        <v>2438900</v>
+        <v>2696000</v>
       </c>
       <c r="H62" s="3">
-        <v>2279100</v>
+        <v>2465700</v>
       </c>
       <c r="I62" s="3">
-        <v>2249800</v>
+        <v>2304200</v>
       </c>
       <c r="J62" s="3">
+        <v>2274600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2190600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2207100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2162600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2088200</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2509,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2544,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2579,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22448500</v>
+        <v>23303800</v>
       </c>
       <c r="E66" s="3">
-        <v>21974900</v>
+        <v>22695200</v>
       </c>
       <c r="F66" s="3">
-        <v>19018900</v>
+        <v>22216400</v>
       </c>
       <c r="G66" s="3">
-        <v>17489500</v>
+        <v>19228000</v>
       </c>
       <c r="H66" s="3">
-        <v>18365400</v>
+        <v>17681700</v>
       </c>
       <c r="I66" s="3">
-        <v>18574500</v>
+        <v>18567300</v>
       </c>
       <c r="J66" s="3">
+        <v>18778600</v>
+      </c>
+      <c r="K66" s="3">
         <v>19703900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19594800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18385500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18209900</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2629,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2664,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2699,8 +2829,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2734,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2769,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>60591400</v>
+        <v>63936500</v>
       </c>
       <c r="E72" s="3">
-        <v>59247800</v>
+        <v>61257300</v>
       </c>
       <c r="F72" s="3">
-        <v>57514300</v>
+        <v>59898900</v>
       </c>
       <c r="G72" s="3">
-        <v>54425600</v>
+        <v>58146400</v>
       </c>
       <c r="H72" s="3">
-        <v>52148000</v>
+        <v>55023700</v>
       </c>
       <c r="I72" s="3">
-        <v>50559400</v>
+        <v>52721100</v>
       </c>
       <c r="J72" s="3">
+        <v>51115100</v>
+      </c>
+      <c r="K72" s="3">
         <v>48665000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>47901300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>46286600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>45143700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2874,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2909,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70022300</v>
+        <v>73438400</v>
       </c>
       <c r="E76" s="3">
-        <v>69170900</v>
+        <v>70791900</v>
       </c>
       <c r="F76" s="3">
-        <v>67574900</v>
+        <v>69931000</v>
       </c>
       <c r="G76" s="3">
-        <v>63965700</v>
+        <v>68317600</v>
       </c>
       <c r="H76" s="3">
-        <v>60743900</v>
+        <v>64668700</v>
       </c>
       <c r="I76" s="3">
-        <v>59708600</v>
+        <v>61411500</v>
       </c>
       <c r="J76" s="3">
+        <v>60364800</v>
+      </c>
+      <c r="K76" s="3">
         <v>58060000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>57731300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>55442000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>53092200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2979,83 +3133,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42004</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2607500</v>
+        <v>3148000</v>
       </c>
       <c r="E81" s="3">
-        <v>2155400</v>
+        <v>2636200</v>
       </c>
       <c r="F81" s="3">
-        <v>4207800</v>
+        <v>2179100</v>
       </c>
       <c r="G81" s="3">
-        <v>2690900</v>
+        <v>4254100</v>
       </c>
       <c r="H81" s="3">
-        <v>2631800</v>
+        <v>2720400</v>
       </c>
       <c r="I81" s="3">
-        <v>2285600</v>
+        <v>2660700</v>
       </c>
       <c r="J81" s="3">
+        <v>2310800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1875700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1969400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2009100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1855100</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3069,8 +3232,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3104,8 +3268,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3139,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3174,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3209,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3244,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3279,43 +3458,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1749800</v>
+        <v>775200</v>
       </c>
       <c r="E89" s="3">
-        <v>-286200</v>
+        <v>1769100</v>
       </c>
       <c r="F89" s="3">
-        <v>1224600</v>
+        <v>-289400</v>
       </c>
       <c r="G89" s="3">
-        <v>1157800</v>
+        <v>1238100</v>
       </c>
       <c r="H89" s="3">
-        <v>3296000</v>
+        <v>1170600</v>
       </c>
       <c r="I89" s="3">
-        <v>1657100</v>
+        <v>3332200</v>
       </c>
       <c r="J89" s="3">
+        <v>1675300</v>
+      </c>
+      <c r="K89" s="3">
         <v>291500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1138300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>556800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-473100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3329,8 +3514,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3364,8 +3550,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3399,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3434,43 +3626,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-312000</v>
+        <v>-1337700</v>
       </c>
       <c r="E94" s="3">
-        <v>-2115200</v>
+        <v>-315400</v>
       </c>
       <c r="F94" s="3">
-        <v>-910700</v>
+        <v>-2138400</v>
       </c>
       <c r="G94" s="3">
-        <v>-317100</v>
+        <v>-920700</v>
       </c>
       <c r="H94" s="3">
-        <v>-918100</v>
+        <v>-320600</v>
       </c>
       <c r="I94" s="3">
-        <v>-335200</v>
+        <v>-928200</v>
       </c>
       <c r="J94" s="3">
+        <v>-338800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-406400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-79900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-51300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-965600</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3484,43 +3682,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1273300</v>
+        <v>-466500</v>
       </c>
       <c r="E96" s="3">
-        <v>-442900</v>
+        <v>-1287300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1107000</v>
+        <v>-447800</v>
       </c>
       <c r="G96" s="3">
-        <v>-405700</v>
+        <v>-1119200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1032800</v>
+        <v>-410200</v>
       </c>
       <c r="I96" s="3">
-        <v>-387000</v>
+        <v>-1044100</v>
       </c>
       <c r="J96" s="3">
+        <v>-391300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-884600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-349200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-867100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-97000</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3554,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3589,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3624,109 +3832,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1198200</v>
+        <v>171700</v>
       </c>
       <c r="E100" s="3">
-        <v>1275000</v>
+        <v>-1211400</v>
       </c>
       <c r="F100" s="3">
-        <v>517500</v>
+        <v>1289100</v>
       </c>
       <c r="G100" s="3">
-        <v>-643800</v>
+        <v>523100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1650800</v>
+        <v>-650900</v>
       </c>
       <c r="I100" s="3">
-        <v>-954800</v>
+        <v>-1669000</v>
       </c>
       <c r="J100" s="3">
+        <v>-965300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-324300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1401900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>77600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1561000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-52700</v>
+        <v>-4800</v>
       </c>
       <c r="E101" s="3">
-        <v>-17800</v>
+        <v>-53300</v>
       </c>
       <c r="F101" s="3">
-        <v>53100</v>
+        <v>-18000</v>
       </c>
       <c r="G101" s="3">
-        <v>32000</v>
+        <v>53700</v>
       </c>
       <c r="H101" s="3">
-        <v>-42300</v>
+        <v>32300</v>
       </c>
       <c r="I101" s="3">
-        <v>-18000</v>
+        <v>-42800</v>
       </c>
       <c r="J101" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-32700</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>186900</v>
+        <v>-395600</v>
       </c>
       <c r="E102" s="3">
-        <v>-899200</v>
+        <v>188900</v>
       </c>
       <c r="F102" s="3">
-        <v>639500</v>
+        <v>-909100</v>
       </c>
       <c r="G102" s="3">
-        <v>228900</v>
+        <v>646500</v>
       </c>
       <c r="H102" s="3">
-        <v>684700</v>
+        <v>231400</v>
       </c>
       <c r="I102" s="3">
-        <v>349200</v>
+        <v>692200</v>
       </c>
       <c r="J102" s="3">
+        <v>353000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-472000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-343400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>583400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>112900</v>
       </c>
     </row>
